--- a/inst/extdata/SPAC_080199.xlsx
+++ b/inst/extdata/SPAC_080199.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/lsmith_nps_gov1/Documents/Documents/CCAL/imd-ccal/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1288" documentId="8_{A754B7F6-7D3D-4F69-92F9-D4031A51AC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90FCF3A0-76CC-4911-AFAF-90F3561627EB}"/>
+  <xr:revisionPtr revIDLastSave="1290" documentId="8_{A754B7F6-7D3D-4F69-92F9-D4031A51AC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB57F06E-5532-49EC-B111-6D9BAB0FB2E1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,9 +421,6 @@
     <t>MERC_009,  6/7/99 08:00</t>
   </si>
   <si>
-    <t>MERC_010  6/7/99 9:00</t>
-  </si>
-  <si>
     <t>MERC_011,  6/7/99 10:00</t>
   </si>
   <si>
@@ -605,6 +602,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.5</t>
+  </si>
+  <si>
+    <t>MERC_010,  6/7/99 9:00</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1181,12 +1181,12 @@
     </row>
     <row r="9" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
     </row>
     <row r="22" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>103</v>
@@ -1282,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>104</v>
@@ -1299,7 +1299,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>105</v>
@@ -1316,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>106</v>
@@ -1333,7 +1333,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>107</v>
@@ -1350,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>108</v>
@@ -1367,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>109</v>
@@ -1384,7 +1384,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>110</v>
@@ -1401,7 +1401,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>111</v>
@@ -1418,10 +1418,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>17</v>
@@ -1435,10 +1435,10 @@
         <v>11</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>17</v>
@@ -1452,10 +1452,10 @@
         <v>12</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>17</v>
@@ -1469,10 +1469,10 @@
         <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>17</v>
@@ -1486,10 +1486,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>17</v>
@@ -1503,10 +1503,10 @@
         <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>17</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="48" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="50" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="52" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="54" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="56" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BO22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BM14" sqref="BM14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="3" spans="1:67" s="8" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -2038,16 +2038,16 @@
     </row>
     <row r="5" spans="1:67" s="13" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="C5" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>103</v>
@@ -2056,34 +2056,34 @@
         <v>72898</v>
       </c>
       <c r="G5" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="J5" s="27" t="s">
+      <c r="L5" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>153</v>
-      </c>
       <c r="M5" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O5" s="27" t="s">
         <v>40</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -2091,7 +2091,7 @@
         <v>0.15</v>
       </c>
       <c r="T5" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
@@ -2099,19 +2099,19 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X5" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y5" s="27" t="s">
         <v>36</v>
       </c>
       <c r="Z5" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA5" s="27">
         <v>0.24</v>
       </c>
       <c r="AB5" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
@@ -2121,7 +2121,7 @@
         <v>0.26</v>
       </c>
       <c r="AH5" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="12"/>
@@ -2131,31 +2131,31 @@
         <v>0.01</v>
       </c>
       <c r="AN5" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AO5" s="27" t="s">
         <v>37</v>
       </c>
       <c r="AP5" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AQ5" s="27" t="s">
         <v>37</v>
       </c>
       <c r="AR5" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS5" s="27">
         <v>0.01</v>
       </c>
       <c r="AT5" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AU5" s="27" t="s">
         <v>38</v>
       </c>
       <c r="AV5" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AW5" s="12"/>
       <c r="AX5" s="12"/>
@@ -2163,7 +2163,7 @@
         <v>0.13</v>
       </c>
       <c r="AZ5" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BA5" s="12"/>
       <c r="BB5" s="12"/>
@@ -2171,7 +2171,7 @@
         <v>3.2</v>
       </c>
       <c r="BD5" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BE5" s="12"/>
       <c r="BF5" s="12"/>
@@ -2179,19 +2179,19 @@
         <v>3.1</v>
       </c>
       <c r="BH5" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BI5" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="BJ5" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="BK5" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="BJ5" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="BK5" s="27" t="s">
-        <v>173</v>
-      </c>
       <c r="BL5" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BM5" s="12"/>
       <c r="BN5" s="12"/>
@@ -2201,16 +2201,16 @@
     </row>
     <row r="6" spans="1:67" s="13" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="27">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>104</v>
@@ -2222,7 +2222,7 @@
         <v>10.220000000000001</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I6" s="12">
         <v>3.11</v>
@@ -2348,16 +2348,16 @@
     </row>
     <row r="7" spans="1:67" s="13" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="27">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>105</v>
@@ -2369,7 +2369,7 @@
         <v>19.84</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I7" s="12">
         <v>1.45</v>
@@ -2395,7 +2395,7 @@
         <v>74</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S7" s="12">
         <v>9.9000000000000005E-2</v>
@@ -2404,10 +2404,10 @@
         <v>72959</v>
       </c>
       <c r="U7" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V7" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W7" s="12" t="s">
         <v>36</v>
@@ -2427,7 +2427,7 @@
         <v>0.15</v>
       </c>
       <c r="AD7" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AE7" s="12"/>
       <c r="AF7" s="27"/>
@@ -2441,7 +2441,7 @@
         <v>45</v>
       </c>
       <c r="AJ7" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK7" s="12"/>
       <c r="AL7" s="27"/>
@@ -2479,7 +2479,7 @@
         <v>36</v>
       </c>
       <c r="AX7" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AY7" s="12">
         <v>0.52</v>
@@ -2519,16 +2519,16 @@
     </row>
     <row r="8" spans="1:67" s="13" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="27">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>106</v>
@@ -2540,7 +2540,7 @@
         <v>21.45</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="12">
         <v>1.58</v>
@@ -2674,16 +2674,16 @@
     </row>
     <row r="9" spans="1:67" s="13" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="27">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>107</v>
@@ -2695,7 +2695,7 @@
         <v>12.57</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I9" s="12">
         <v>4.8099999999999996</v>
@@ -2821,16 +2821,16 @@
     </row>
     <row r="10" spans="1:67" s="13" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="27">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>108</v>
@@ -2842,7 +2842,7 @@
         <v>12.09</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>52</v>
@@ -2964,16 +2964,16 @@
     </row>
     <row r="11" spans="1:67" s="13" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="27">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>109</v>
@@ -2985,7 +2985,7 @@
         <v>15.74</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I11" s="12">
         <v>1.43</v>
@@ -3111,16 +3111,16 @@
     </row>
     <row r="12" spans="1:67" s="13" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="27">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>110</v>
@@ -3132,7 +3132,7 @@
         <v>21.45</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I12" s="12">
         <v>0.66</v>
@@ -3254,16 +3254,16 @@
     </row>
     <row r="13" spans="1:67" s="13" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="27">
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>111</v>
@@ -3275,7 +3275,7 @@
         <v>7</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I13" s="12">
         <v>3.54</v>
@@ -3366,10 +3366,10 @@
         <v>72969</v>
       </c>
       <c r="BA13" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BB13" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BC13" s="12">
         <v>0.55000000000000004</v>
@@ -3378,10 +3378,10 @@
         <v>72969</v>
       </c>
       <c r="BE13" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BF13" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BG13" s="12" t="s">
         <v>60</v>
@@ -3398,10 +3398,10 @@
         <v>72969</v>
       </c>
       <c r="BM13" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BN13" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BO13" s="21" t="s">
         <v>39</v>
@@ -3409,19 +3409,19 @@
     </row>
     <row r="14" spans="1:67" s="13" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="27">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="F14" s="24">
         <v>72898</v>
@@ -3430,7 +3430,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I14" s="12">
         <v>22.2</v>
@@ -3556,19 +3556,19 @@
     </row>
     <row r="15" spans="1:67" s="13" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="27">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F15" s="24">
         <v>72898</v>
@@ -3577,7 +3577,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I15" s="12">
         <v>2.67</v>
@@ -3711,19 +3711,19 @@
     </row>
     <row r="16" spans="1:67" s="13" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="27">
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="24">
         <v>72898</v>
@@ -3732,7 +3732,7 @@
         <v>1.96</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I16" s="12">
         <v>0.34</v>
@@ -3788,7 +3788,7 @@
         <v>64</v>
       </c>
       <c r="AF16" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG16" s="12" t="s">
         <v>65</v>
@@ -3806,7 +3806,7 @@
         <v>65</v>
       </c>
       <c r="AL16" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AM16" s="12" t="s">
         <v>56</v>
@@ -3870,19 +3870,19 @@
     </row>
     <row r="17" spans="1:67" s="13" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="27">
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17" s="24">
         <v>72898</v>
@@ -3891,7 +3891,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I17" s="12">
         <v>0.84</v>
@@ -4041,19 +4041,19 @@
     </row>
     <row r="18" spans="1:67" s="13" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="27">
         <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" s="24">
         <v>72898</v>
@@ -4062,7 +4062,7 @@
         <v>6.55</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I18" s="12">
         <v>12.53</v>
@@ -4184,19 +4184,19 @@
     </row>
     <row r="19" spans="1:67" s="13" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="27">
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="24">
         <v>72898</v>
@@ -4205,7 +4205,7 @@
         <v>21.21</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I19" s="12">
         <v>8.66</v>
